--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="D101" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E101" t="n">
-        <v>5164367</v>
+        <v>5168867</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -11671,13 +11671,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="D221" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E221" t="n">
-        <v>4078355</v>
+        <v>4083071</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -31102,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>16214</v>
+        <v>16215</v>
       </c>
       <c r="D602" t="n">
         <v>3606</v>
       </c>
       <c r="E602" t="n">
-        <v>56500688</v>
+        <v>56553500</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40347</v>
+        <v>40350</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286637571</v>
+        <v>286664214</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16732</v>
+        <v>16735</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64923201</v>
+        <v>65149110</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25090</v>
+        <v>25091</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90142141</v>
+        <v>90200359</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21652</v>
+        <v>21654</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85566843</v>
+        <v>85672719</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108556</v>
+        <v>108559</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559758314</v>
+        <v>559812551</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90243</v>
+        <v>90244</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232600646</v>
+        <v>232603048</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182124</v>
+        <v>182132</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646865179</v>
+        <v>1646929307</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60008</v>
+        <v>60013</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286576438</v>
+        <v>286694377</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23227</v>
+        <v>23228</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82709406</v>
+        <v>82711868</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183811</v>
+        <v>183819</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552360264</v>
+        <v>552453048</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51281</v>
+        <v>51286</v>
       </c>
       <c r="D859" t="n">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422551426</v>
+        <v>422891916</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34639</v>
+        <v>34641</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70019984</v>
+        <v>70032228</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114916</v>
+        <v>114921</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>418051975</v>
+        <v>418103099</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48516</v>
+        <v>48522</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132197989</v>
+        <v>132232512</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40882</v>
+        <v>40883</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165457761</v>
+        <v>165541991</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23629</v>
+        <v>23630</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70430960</v>
+        <v>70440960</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27693629</v>
+        <v>27703233</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6418</v>
+        <v>6419</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>18550633</v>
+        <v>18553407</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11192315</v>
+        <v>11266871</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -65527,13 +65527,13 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>3898</v>
+        <v>3900</v>
       </c>
       <c r="D1277" t="n">
         <v>516</v>
       </c>
       <c r="E1277" t="n">
-        <v>12786506</v>
+        <v>12791105</v>
       </c>
       <c r="F1277" t="inlineStr">
         <is>
@@ -83479,13 +83479,13 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>30165</v>
+        <v>30166</v>
       </c>
       <c r="D1629" t="n">
         <v>3707</v>
       </c>
       <c r="E1629" t="n">
-        <v>96098060</v>
+        <v>96108060</v>
       </c>
       <c r="F1629" t="inlineStr">
         <is>
